--- a/purple_green_orange/practice_purple_green_orange.xlsx
+++ b/purple_green_orange/practice_purple_green_orange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/purple_green_orange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49F0DF-3FE1-F848-92A9-3481AB42D64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ECDD01-E502-9443-893F-37B096700821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="6220" windowWidth="28100" windowHeight="17260" xr2:uid="{E0731467-EF0F-F74F-926C-BCAF7E70142D}"/>
+    <workbookView xWindow="1140" yWindow="1860" windowWidth="28100" windowHeight="17260" xr2:uid="{E0731467-EF0F-F74F-926C-BCAF7E70142D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6768883B-A420-3748-82CF-5ECE76FD86D0}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>24</v>
